--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/33_Gaziantep_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/33_Gaziantep_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE3466D1-1389-4929-889E-A813F10EB2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56BEA50E-C307-4890-A8E6-FC372282E9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{06C53299-B5CF-4591-9511-EECF428E7F9D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{7C63E128-D228-49A7-AEA9-01565AC29410}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -954,13 +954,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{6FE331F3-A308-425C-A675-08FE933D5588}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{7DDDB23D-B7AB-473D-B1C9-10B73D8C7291}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{52EA4B19-6D78-4EF2-A1CA-95FF35BFED66}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{7E175928-E2E5-4C01-BCE4-A5537066E7D9}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{5809529F-C80C-4ADB-B1F0-83EAE48E2C07}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{2C520C11-026E-4D96-953C-8C3C95B6168A}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{E2AC329E-1D02-43FA-9DB9-77591494E5E1}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{9A0CE4B2-9CB9-4A65-BBC4-23B609502CCE}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F855E0DE-4C11-456C-8DC2-667C7495FA8D}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{88E12AD4-43ED-4330-903E-0B1F2C66641C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{C34A123C-6846-4EDE-80E8-F8D658FE0BD4}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{CEC85931-B9D9-43CC-BEB6-91BE6A44A1E0}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{BE195F90-35C7-47C8-96F7-BE844A0FE560}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{13D03EE8-3EAC-4243-A486-78E594AB85D5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EEA42B-F3DC-4D1D-B610-6367E6610086}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE51BDE8-8DD5-41C4-898B-B92C20FBF8E6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2625,18 +2625,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{891D4C42-B3F1-4F09-A10C-2F67D2DB9707}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8321DF10-7F8C-4A11-AFD4-E65D70153E61}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2584122C-EDAD-4F08-AE18-950E85F8851B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{29D71EAC-DF3A-4336-AFAC-EB6F7AA462BE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{643C0AA7-C0E5-4581-8783-DE03BE171652}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6F527AE5-0EB2-45ED-B7DF-DD95A52802CD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A4A64D7F-1D0B-443F-8926-C9B16F7664D2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1B139C84-E774-41D9-B27E-9D0338A4B77A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ABA44BDA-3EB4-4771-B38B-09722D4E0736}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{858F5342-F32C-412E-A4D5-C0B4EB348231}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{75AA3620-B0C9-4E63-80DC-D4F3BD756D56}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B1F14967-E32F-4DBE-AF1B-41BFF1760055}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{484AB579-09A3-4999-867B-936A4B0AFAA6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{807B0818-F69B-4EA3-B9A0-B229FB23347F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B0853A2F-C0A4-4838-91F8-CB4FBCFA9371}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F90D0906-B70E-4BEC-A2C6-33CCAF96ABAC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{54A5ECCA-B121-4BB7-88D9-24B9C26EED6B}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5684770F-1F4D-46A6-AD24-57999BCA91BA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0F1CA8C4-E63A-4E61-A130-4FC407C85B11}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E3531752-282F-46E5-ACF1-BBB9080DC164}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A64B5F84-1979-463A-9D3E-60B73F1D9A35}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{266D7257-1DA3-4E6D-A288-C41E99CBEB43}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5ECE9EAE-643B-4953-A147-BAF0C0CDB44B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{117E5E41-7627-4E65-8DF1-CB4503D22712}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2649,7 +2649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFB49F7-DF7B-410A-94A5-8C81819D0894}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897A8DC3-0149-463E-828F-7E9DDCC220E1}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3920,18 +3920,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0E3CFB50-F710-4964-BC51-6671F54BEEDE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D8E8FA91-D6D1-4B7C-A3CF-8F4D63EA5BC7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{96CC5A61-19E9-4FE9-905A-6B258C693E2F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{710FAD96-62B5-4D37-BF1E-9D5379B64662}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3837531E-C75C-4E6E-A4E1-EDBFA1BBA9B9}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F2CA68D3-5161-4396-B904-58E476CD531B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D59BF38B-AFCE-408F-9F00-B1EEBF198761}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{004CA418-DEC2-4480-8D65-6A3E4A6A5FBC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{63E69810-65C8-4A9B-8C04-CEBDE8D3FC21}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C48B5F9E-7E7F-42C1-8A80-E6162A9BB0C0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7F0C01ED-BFA9-463E-A677-E16B887FADFF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CBE2D3F6-A3B1-4DE0-B72E-338B00E087DF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F7EB7D45-D5E8-4BC5-9F15-3A14B988A0EC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3ACD7141-5C8A-422F-A82B-23FF0F6E3990}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CD9E6754-5FFF-45D1-B7E6-49A871C41F17}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2F2FB934-7E5B-43AC-B974-6ED46DA310C2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4E988BFB-1372-431B-9F1B-03A958AFAA5C}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9A92C676-B9A6-4F97-8217-86ACAAFB992C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F181756F-8BAF-4A57-AC2A-E9D8B8EECC53}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DD8ABA8E-92E1-4E21-9AA6-5CEBD56D0A02}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AB707696-2EFC-4C22-ACC3-C2671B63C86D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9963F8F6-186C-46A0-8A0A-9C0676998FB7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4461DB93-3572-4A05-8AE4-5E57D96D1F4C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B3564A5F-62C7-4336-8D0A-B2A693AC3649}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3944,7 +3944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114C96A9-1EBD-4D55-A762-7F99D8799004}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED0148C-CDAC-46B9-8441-2114954A82C5}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5215,18 +5215,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0039118D-1E61-4A39-8F5E-4D17FE2FA881}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1D55A07A-D218-47F8-85EC-5AF59E231E90}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E1284A32-21D9-42E4-98D9-F082F6C49881}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4014CCDA-CB23-4ECA-AABD-9B7E889D279E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{91A60265-9034-462C-9BFF-2D916ECE6B42}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AC298C4F-CA3D-4AD5-AA88-E443415BB31E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{681AFD13-70CA-4AA2-8D94-067E5F919A85}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{70B00A84-9675-48ED-B822-1BFC2B8D3FF9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7202EF8F-0EAD-415F-AEED-161F2EF7F4E6}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{071AAB53-FD1E-46FF-B977-429DDB0D296C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FEE696F7-0F66-47EC-985B-D6689EAD3359}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CFB38696-CC53-4F12-A1A3-56B1FC9D0847}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{236546A6-6EC1-47F9-893A-37C65356B468}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{835EDD0D-88B7-4728-9675-1177C36DD701}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{86AC05C5-AFDD-40BE-8E7F-F2CECF0E998D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9D77917E-A2D0-46C2-99D4-7BCA6CB4B2DC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{28D875F6-47FA-466E-873B-5068EA0635C7}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8A41D0D8-3C7B-4443-90DA-1545893AE543}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{557CE11D-32F3-482E-9C3B-C93447A99011}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9AE04316-AB68-40E0-8B5A-9DBC8E3ACB72}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2E72B768-6D24-4D1C-8C49-35DA45006A8F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FDCB2953-045A-41B1-AC81-FF9FF8D3BA82}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CBE03A10-D04D-4B74-B6F1-4834B7105333}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DDC00AE8-F416-41D6-9E61-A2A860F6EAEF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5239,7 +5239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB1096E-B528-4B10-97EF-FC94890BFFDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0EE6CF-1DFD-40C8-A0AF-A9767859DCB1}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6503,18 +6503,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7359E395-AFCF-4600-A64C-C3AB24783C31}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{01E77C02-F595-4683-BDB2-445467045063}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3FCD3E66-4BDF-4D4C-9FB7-BA311F0E23AE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ADA37BEC-48FD-48FF-8523-90C960F33B9F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7F0B886C-0E71-4B3D-AC38-6957CC4DE488}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8D1F0F9F-6EE7-4EE0-A025-F9C969515050}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{494C992B-1190-45CD-900B-13022851F454}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{852E6061-2005-4D0C-B3ED-32DF6794208A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FB822A7B-6B18-4D0F-AB1F-DC1195423498}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3DB9E0AA-35C6-441D-A603-E813E706D385}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CC3D26AA-1D77-4EAE-AA92-E9EC2E5DDA64}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1A790FD6-9911-4F05-81AC-DA78C85395A5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3C8FC13F-B855-4772-9FE3-07A085DA3F2B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C68ED2F3-CF78-44E1-AF54-B29716A4014C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1701A77E-7D2F-4EC8-AF1D-C94B52EF90E4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{204E720D-5691-4393-82B4-E8895FA0CBFC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7646EA9B-45FB-455C-8691-5A6220D79AA3}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FDA2BA61-9BF5-477A-B1C6-AA1E060C35FA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AA31609E-8579-40EA-B8D4-B471D8E12BDC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{88051E8F-6141-4E93-83E9-AA1D98461D62}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6C0C92CF-3FEC-4B74-AFC3-F79E6F656FC4}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C386A7C8-1340-4A55-8809-5B50E8B2D80E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2979028C-D9BF-44C3-810E-FEBA2DE126E2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A3A1BE41-AF2F-46BC-8022-64CEAF8D1FBF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6527,7 +6527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE45DD4-2705-4A4B-A1F0-B88078615F90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BC83A2-DDB2-471E-B626-1180883BD38C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7822,18 +7822,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{47C3426D-3D40-478F-B3C8-055F809555E4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1A77A1F1-EFD8-4EE2-9280-2E6EDA3FECF7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6C8CF0E3-4473-4661-BEDC-28A862DB39C9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{582A6DF0-0270-4920-9C2C-6C57DBCE8DDD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B457EC14-4713-4BC1-A472-177D4EFEF36B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{81EA0173-DE63-4487-B23A-370FF7B39829}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F93881CF-50F7-4EBA-B7C9-76FE001DB85F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{20806B1B-F365-4675-8DF4-438AD3FE5664}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{75419580-4DE9-4BC8-8781-F2BDC9F425F6}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9ADC05CA-0558-4BEA-B34A-95C025DB6D55}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{933BF829-0938-487E-93F9-7B7848813648}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{521FD459-E450-4601-AD09-D6CFAC9976EE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F4A44231-C875-4CA1-9C30-02FE41C46C27}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{16173F0E-936A-46F7-88B7-A05120FFA2FB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DD183432-DC0C-4A62-97D7-61362AE5AAF7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6BE8F42F-9FE5-47E9-806C-E29665B2604D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E98920BF-B66F-4DE5-8597-60953C41D915}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{88D81612-763F-4F2B-ACDC-EE0F8A627AC7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{47F2C7A9-A2EB-4BE2-B212-1765C3685A7A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7DB91262-F47D-4B9F-A6CE-17A89AB77AE1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F34FAD32-5936-47DA-A432-CBB9528D01C1}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D8AB30CA-9C50-40E0-B541-97DA207322E3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E6C28CD9-81B1-4004-92EE-92F5948F6499}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8720CFC6-6979-494E-90FA-9029C13D1E49}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7846,7 +7846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354C95EB-D0F2-4940-8E02-84E088D65F4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35410487-FA01-438E-961C-F6E40597D80D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9141,18 +9141,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{274F0FC7-D3DD-45D9-A5E5-1F5128B68814}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E5E0A090-618C-456C-A9C9-1F4409FBFC1B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{03001D18-72E1-4491-A45B-0E62F9629FBC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{65F5AC09-7342-45DC-9D43-92CA6CA79A12}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F99E25B4-A17F-44B3-A04C-7BA2009AA63F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{199B130D-D367-43A5-BDAD-02F69C4EDDD3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{389C57DD-00F6-4E2D-B3D6-E4FE2FD0CFEB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ABDF0FB0-9D95-474E-8D8B-AE128375B8A8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{28922F61-98CC-40DF-9B33-76CC7B888615}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{25046578-C535-46A7-AC1E-F6FD0B547BB0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8EC5A223-1DE7-4C8C-9987-056D6E7C464E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7CB98B6A-BF20-4E94-B936-31823C19D351}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{35C5A36D-5365-4E98-9FDF-F132DD9CB906}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7CEAD301-EAD7-448D-AC28-3354B5993B07}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C1619955-7D80-46BE-8911-381A016D5985}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B0A47E08-1E35-441A-A881-6D90F3B2BF08}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7DDBD693-C648-4BAA-AA7F-884812040569}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AC2010D8-BFCA-4C65-8C8D-B58521421E13}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8CAC40FC-1BDA-4BF5-ACB5-B940C394D189}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A2010B5C-8FB0-4C0C-83A7-A26593390FCB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C4A5041F-129A-4BEB-988D-1D0F01A37643}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{03B16C19-0BB3-433F-A505-24A755E5DFC4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BE7B6150-5A90-4E85-A39E-DDB61D0910AE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C1015F6E-2537-4E6A-BE61-80B05A04245E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9165,7 +9165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDD058B-4FB2-4F1D-B00C-1E902DA72F97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04345426-C856-42AC-9F4D-FE7A545FE5AD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10460,18 +10460,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{651D082E-9022-4A7F-BE4E-92B8C306E123}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{686158EE-052E-4957-93A3-D373EF9D2DCF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E0831434-14C4-4DA4-987D-C547B34CCF09}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{737216F0-1CA0-473C-9D5C-1CC65539D743}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5194B30F-7C5F-4D98-AB88-0B0170309B5B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EB62C01D-394A-4EB8-903F-285C494B1CCF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{62A82232-5D33-485A-84F6-5D7DBA37FE61}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F3EA006C-73B5-42BF-823D-ED7F4E7D0C0F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{89AEE4A7-3667-4295-A9DE-AADFEB2EE1D1}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{AD448D38-74E7-4D98-BED1-4BDF59E20C45}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9A892451-6B0B-4099-8145-3E260BA0C1B0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3F6DAD68-B55E-4B0F-BDBB-F7C79D115B40}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8D9B1FF8-DDC9-4136-8BFD-74D7DC9D977C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{271F33EF-6A81-4998-9D9D-8BAF7F4E6403}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{025C3F3B-D4A7-4EE8-A419-5F26AD277194}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F3F109E2-A46D-4C9E-B709-C0F8D9AB23B9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ACF569C8-380C-4DA4-9696-E2303280F1AE}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EFE91C58-4BE7-4BA7-9537-F66624855771}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2544F435-679B-4C55-B2A8-F194979957B4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{06DE6184-2975-4EC2-9395-267C61ADF109}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C11659A7-1FD7-4090-8E9D-76653D63E68E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7E5C9D4F-F484-4A3B-B0DE-32F41B9CCB7C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1BEAA3AF-F44E-4D73-A56D-44AB15B9789F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FF6C4127-F670-4BE2-B321-EE0E24BDBE47}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10484,7 +10484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F39B31-97E1-4CEA-9368-EA2A75B033D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54A12E7-EB73-458E-8607-BBE00DD740A5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11779,18 +11779,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{00FCE5CD-C379-4C53-881A-2FD478D252D4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{308C536F-EAFD-4ED3-8E13-E56E39545F32}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{99F08D47-6F33-4BC9-B6E8-CC33F5BA6921}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{695ECDDF-77A7-4370-91B6-D4238709C6B7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1AF2A2FC-BDB7-46E4-8870-893B31A35179}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A01CED91-6747-4E5B-9A35-F0598ACA22FD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F32A01BE-82ED-4E4E-9475-3BF3FB3E0341}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B9534050-BD27-4447-A26D-73C7F5781AC6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6E2AED56-7A9A-4D38-BC99-E7E8EF8F28DC}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D084478B-D07E-4B14-97D8-16E70D3E4248}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D48D15AB-5CD2-48E7-B097-2045D8397EC2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0AE23A2C-345B-4214-991D-46CA61167D47}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{28571126-F69D-415E-9F14-61B5D7A6C919}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E0C76916-C185-41B7-913C-CD1DB0D7B433}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{21A7D5D3-4F58-4F58-9250-7E6CD058A6CD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BAEF3C4B-C4AC-4FED-8180-12DBF76C2935}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{70B0CEC7-EEB3-4125-8932-97723F4C4668}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B19B3216-7DB7-44F7-AB9F-82920E6D38E0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FDF3B5E8-CB15-477F-AAB5-E1F3A67E2F69}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C52F0AC2-FF17-4596-BF29-4F130C6914FB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5FEB8E10-F6D1-4E70-AB5C-562A5BD6B9CB}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{896B50A8-1B40-4675-BDE7-F90BE611EF91}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9F2D7779-FEAC-48D6-A23E-B6FFB0B44A91}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{23DFE374-2E81-4F2D-BD5E-33F66629D5A6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11803,7 +11803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F7A675-30CE-4A21-8565-1F5CF076102E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B957C2C-5655-4D7F-AD73-0447EC9F5E90}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13086,18 +13086,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F92A9FF5-7CFF-46F4-B898-22D491C45768}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{764D902C-B542-4A4E-8AD0-96579C524FC6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C9B5DC8E-DEB4-4BC9-A7C4-999D68EF17F6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{30ACF953-1B88-4B3C-8896-DEC0F7A6AC93}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8A5B818D-A668-4BFC-8D00-B7F8125C12EE}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{22F53455-9C21-415A-A35C-6C0177D689F4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CE0AE8D7-AE54-4C94-91B3-FC72020EACD1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F0CDD6F1-9306-43C1-8581-C0F7F22737A9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1D6CEA17-9E03-4026-A590-16F75FDBF737}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{99D64F4E-0FE6-4E45-BF25-3A6DF7BFDE53}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D4565BD5-0527-4D3F-9FBE-42B07DA1645D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1BB757E2-D640-41C7-A01D-D04AFD2F9B7D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{72AA5E4D-6A1D-469E-8DF3-02B6B4C0A073}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EFDDC684-A638-41A1-9033-1F9D022425F0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7F49BFBE-0C7D-463B-B72D-D9B8BDCFF0B5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B160DF2B-3AC4-4DDE-9377-E96B4DF0AFC8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{684B7274-984B-4C1C-ADC8-B416B2C87DAA}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E04E2B34-E24E-4162-AF1C-E52A44925B31}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{172F546E-ED38-4352-882B-CD66EA55EC29}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D082F898-794B-46C8-A8E0-2D783D552DDE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8A2CEE61-6358-4708-9CB4-53A3086DF719}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{771A8DC9-D12A-4F3A-885C-6CBA35A31D1C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{632836BA-B8BB-4D02-91C0-17921FC852A2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8C86F8BB-AD8F-40D5-A1FD-0087BEF6B252}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13110,7 +13110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB3B876-8D26-45F3-8CD8-20C818CAF564}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EEC277-06E6-447E-B306-A1A426C59F57}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14381,18 +14381,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2F20F4F4-6F7F-4733-83E1-CF413235D26B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5ECCACF5-72DF-414A-8326-965CBC5436B9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D0E5A633-F69A-44D6-A2E2-A8673AEDD1C9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{00DFC37C-C96F-4F90-9240-F2DC1CFC626C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3CA7155D-1069-483B-998D-4CFEAA538030}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{ED18756F-D02C-4B9A-9659-77304DC711DD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{67678A8C-1767-4512-A1F7-83ACD7C34D2A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{678A07F6-A15E-4B83-8D36-90E2BBE684C5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{97F55A70-7C7D-469D-94AA-2C4CB41E2A74}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9A5E8D0D-3C50-4746-A20D-5AA9CBA69A23}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EC5060BD-B1C2-472A-8202-6DC02A5A8A09}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6257403D-F844-48BB-9BC7-E4FE429A3C84}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3DF77288-1745-4311-9F9B-FE11AB0C6D15}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{41B0B1AE-3020-406C-8DA1-A447F3200DA1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{658A34FE-784A-42B0-A155-0C8743F6C78F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A2E62E20-3B5B-46B2-B33F-8BD6F95FFBA9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EF25CEE1-DA8E-4007-8864-25007CCE8B8B}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1C40F0F1-5C55-4706-8039-2AFDA1011A06}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BDDB36A2-1ECC-4784-BBA3-37D36A84F39A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{85107DA9-C52C-49DA-8B16-56B73E39503C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3F0723EC-FC86-4EB0-A3B7-7F286D75CAAD}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6E55D9BC-BB07-4A9A-B353-F2D0F0FFCBFB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{556A1F27-F071-49B3-BB01-6BD2333D6BF3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5D124966-0AB1-44A3-A462-5C1DCA9C97D7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14405,7 +14405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BCDA16-92CA-4245-A805-1D79D25AB9A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42C8731-C41E-4A72-8417-2980F9DC04AF}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15676,18 +15676,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{49774549-CFB1-4D29-9AE4-CE068E87C66D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{91B82A5B-AC8C-495A-A9D8-9B69D08B3E46}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{006FF413-E7EE-4C00-8083-12863A25C77A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C886727A-545E-4B75-A7B0-CF502DAFE7F0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{535E7A81-8738-4B47-8CE7-77329FD2DBD7}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1AD00D04-1AF1-4235-9B0D-A0ED7BE45C8D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{603C5728-1691-48E0-AF2B-E8A3B2AA7E1C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4323E71E-DFDD-430B-9422-AB4DB92F9391}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AD46E1EF-6024-4855-A2CD-0D7DFA4449C1}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E793AC91-E735-4699-AB9F-740D9E056839}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F2E01E52-035F-4B7C-B04E-C61CE5569F32}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D1DAC330-140D-40F3-9CBB-C90B0C6CA476}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7BD9C963-D9E2-431F-975A-AD18E528EB33}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7DBBD523-4A77-4CAD-91C3-7A974E9939C3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3E6C76AD-7C16-4763-8ADC-7E8FFAB1D567}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FEFFC2C7-8D79-4EB4-9BBC-F60EFDC2D142}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C9AC347F-2518-40AD-AC26-B994680B92C8}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{80ABF74D-7F50-4907-94B5-CFA30830DAC8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{44DDE6F1-EC5F-4945-A18C-07323313D8A9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D5F76B35-810D-475F-AAD7-FE10E9098A14}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{76BB2982-1AAB-4218-A9D9-7BC126964AD1}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2BDAF06E-1902-4679-BF1E-5D3FD5C0FCAC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8B251496-11DC-4AE3-B04B-547CC4FD7440}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{63D5C2C8-89FB-4A2D-9001-28F13F5E20CD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15700,7 +15700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B6E9E7-2146-4048-B174-6674803AD666}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300CB235-21B7-4FB9-8959-BDFFAE1EE711}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16971,18 +16971,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DD5BF645-6D8B-436B-A2E5-B71EACCAD2BC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8EA8046A-EBDA-42E7-AF95-8F5F62065198}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{339411BE-5730-452D-9F55-D2038F341417}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5A7F7608-1D0E-4D0D-8587-99D3173EB94C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B00B735D-37BD-4066-8F03-CC314B128938}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2C842BEC-1FA4-4E89-A26A-6CE188F3A391}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3CC15160-A225-47FB-93C7-A86E26B9F90C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{243EA21B-B8C8-4781-B813-FEDA5221C702}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5440B486-C4D6-4205-ABF4-60D9D5770558}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{47D694A7-9032-4FF0-9323-EE81B99ED60F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FE5126E5-F8BE-4969-98EA-03062F5BC4D1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{99578347-18CB-4ABC-AD50-6C04B647411C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A7567061-6EA4-4F7B-812D-41CEE58D871E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8C36FD5B-4320-4824-BE69-841189C55C72}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B1DF494A-AA3D-40C1-9770-D8FCCBB5C227}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0FE48A1B-14E4-4063-B12D-5BDA2E78453C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B9F1E0C6-9155-484E-8476-3A8444AA6FC6}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3C8D472F-9A95-4301-AB3F-7C941D732608}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F512DB2B-8998-4B4D-A993-64B4C9103CED}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B2D1A8AD-5D2E-4B0E-ADE6-81C9C97EA62F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AEF725EA-F0F8-4CBF-9961-9B321247D819}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3E055C67-7CCE-4ABC-A7E3-572EF63CA7F5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AA811F8A-02B5-4AB6-A8C6-BB276FC978C3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ECE4944F-4C25-4565-B77E-BDC51A7C5892}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
